--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value304.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value304.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.255111518430133</v>
+        <v>0.7743191123008728</v>
       </c>
       <c r="B1">
-        <v>1.280401531503339</v>
+        <v>1.185871481895447</v>
       </c>
       <c r="C1">
-        <v>1.389898276375842</v>
+        <v>2.314530372619629</v>
       </c>
       <c r="D1">
-        <v>2.002053585120463</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4.18130811633188</v>
+        <v>1.794419169425964</v>
       </c>
     </row>
   </sheetData>
